--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220522_110206.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220522_110206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
   <si>
     <t>사이트</t>
   </si>
@@ -685,7 +685,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SM</t>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>페포니뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -1191,7 +1188,7 @@
         <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1243,7 +1240,7 @@
         <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1269,7 +1266,7 @@
         <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1321,7 +1318,7 @@
         <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1347,7 +1344,7 @@
         <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1373,7 +1370,7 @@
         <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1399,7 +1396,7 @@
         <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1425,7 +1422,7 @@
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1451,7 +1448,7 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1477,7 +1474,7 @@
         <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1503,7 +1500,7 @@
         <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1529,7 +1526,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1581,7 +1578,7 @@
         <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1633,7 +1630,7 @@
         <v>219</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1659,7 +1656,7 @@
         <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1685,7 +1682,7 @@
         <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1711,7 +1708,7 @@
         <v>219</v>
       </c>
       <c r="H22" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1737,7 +1734,7 @@
         <v>219</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1763,7 +1760,7 @@
         <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1789,7 +1786,7 @@
         <v>219</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1815,7 +1812,7 @@
         <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1841,7 +1838,7 @@
         <v>227</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1867,7 +1864,7 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1893,7 +1890,7 @@
         <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1919,7 +1916,7 @@
         <v>230</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1971,7 +1968,7 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2023,7 +2020,7 @@
         <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2049,7 +2046,7 @@
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2075,7 +2072,7 @@
         <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2101,7 +2098,7 @@
         <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2127,7 +2124,7 @@
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2153,7 +2150,7 @@
         <v>218</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2179,7 +2176,7 @@
         <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2205,7 +2202,7 @@
         <v>235</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2257,7 +2254,7 @@
         <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,7 +2280,7 @@
         <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2309,7 +2306,7 @@
         <v>236</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,7 +2332,7 @@
         <v>237</v>
       </c>
       <c r="H46" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2361,7 +2358,7 @@
         <v>228</v>
       </c>
       <c r="H47" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2413,7 +2410,7 @@
         <v>233</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2439,7 +2436,7 @@
         <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2491,7 +2488,7 @@
         <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,7 +2514,7 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2543,7 +2540,7 @@
         <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,7 +2566,7 @@
         <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2595,7 +2592,7 @@
         <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2647,7 +2644,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2725,7 +2722,7 @@
         <v>243</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2751,7 +2748,7 @@
         <v>223</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2777,7 +2774,7 @@
         <v>233</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2803,7 +2800,7 @@
         <v>228</v>
       </c>
       <c r="H64" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2829,7 +2826,7 @@
         <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2855,7 +2852,7 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2881,7 +2878,7 @@
         <v>238</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2907,7 +2904,7 @@
         <v>228</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2933,7 +2930,7 @@
         <v>216</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2959,7 +2956,7 @@
         <v>222</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2985,7 +2982,7 @@
         <v>228</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3011,7 +3008,7 @@
         <v>228</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3089,7 +3086,7 @@
         <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3115,7 +3112,7 @@
         <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3138,10 +3135,10 @@
         <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3167,7 +3164,7 @@
         <v>216</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3190,10 +3187,10 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3219,7 +3216,7 @@
         <v>233</v>
       </c>
       <c r="H80" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3242,10 +3239,10 @@
         <v>204</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H81" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3268,10 +3265,10 @@
         <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3294,10 +3291,10 @@
         <v>206</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3346,10 +3343,10 @@
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3372,10 +3369,10 @@
         <v>208</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3398,10 +3395,10 @@
         <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3427,7 +3424,7 @@
         <v>221</v>
       </c>
       <c r="H88" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3476,10 +3473,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3528,10 +3525,10 @@
         <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3554,10 +3551,10 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3583,7 +3580,7 @@
         <v>223</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3632,10 +3629,10 @@
         <v>205</v>
       </c>
       <c r="G96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3684,10 +3681,10 @@
         <v>205</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3710,10 +3707,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3736,10 +3733,10 @@
         <v>214</v>
       </c>
       <c r="G100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3765,7 +3762,7 @@
         <v>233</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
